--- a/trunk/file_list.xlsx
+++ b/trunk/file_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="23955" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="22860" windowHeight="10170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="179">
   <si>
     <t>add.catch.frq.R</t>
   </si>
@@ -547,6 +547,12 @@
   </si>
   <si>
     <t>replaced by change.size.frq</t>
+  </si>
+  <si>
+    <t>Based on</t>
+  </si>
+  <si>
+    <t>Equivalent</t>
   </si>
 </sst>
 </file>
@@ -884,11 +890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD137"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD132" sqref="AD132"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -919,13 +925,15 @@
     <col min="24" max="24" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="30" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>136</v>
       </c>
@@ -1005,19 +1013,25 @@
         <v>154</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1042,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1039,7 +1053,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1050,7 +1064,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1061,7 +1075,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1078,7 +1092,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1109,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1126,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1143,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:32">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,7 +1160,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1174,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1171,7 +1185,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,7 +1196,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1193,7 +1207,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:32">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +1224,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1218,7 +1232,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1235,7 +1249,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1246,7 +1260,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1257,7 +1271,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:30">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1267,8 +1281,11 @@
       <c r="Z20" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AD20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1278,8 +1295,11 @@
       <c r="Z21" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AD21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1290,7 +1310,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:30">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1301,7 +1321,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:30">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1330,7 +1350,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1359,7 +1379,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:30">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1369,8 +1389,11 @@
       <c r="Z26" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AB26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1381,7 +1404,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1392,7 +1415,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1402,8 +1425,11 @@
       <c r="Z29" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AB29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1411,7 +1437,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:30">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1419,7 +1445,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1427,7 +1453,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:29">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1438,7 +1464,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:29">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1449,7 +1475,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:29">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1463,7 +1489,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:29">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1474,7 +1500,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:29">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1485,7 +1511,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:29">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1499,7 +1525,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:29">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1510,18 +1536,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:29">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Z40" t="s">
         <v>153</v>
       </c>
-      <c r="AA40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AC40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1538,7 +1564,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:29">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1552,18 +1578,18 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:29">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z43" t="s">
         <v>151</v>
       </c>
-      <c r="AA43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AC43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1571,18 +1597,18 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:29">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Z45" t="s">
         <v>153</v>
       </c>
-      <c r="AA45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AC45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1599,7 +1625,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:29">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1610,7 +1636,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:29">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1618,7 +1644,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:30">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -1629,15 +1655,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:30">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z50" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AD50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1648,7 +1677,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:30">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -1659,7 +1688,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:30">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -1670,7 +1699,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:30">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1684,7 +1713,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:30">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1700,11 +1729,11 @@
       <c r="Z55" t="s">
         <v>151</v>
       </c>
-      <c r="AA55" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AC55" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -1715,7 +1744,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:30">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -1728,11 +1757,11 @@
       <c r="Z57" t="s">
         <v>151</v>
       </c>
-      <c r="AA57" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AC57" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -1742,35 +1771,47 @@
       <c r="Z58" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AD58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Z59" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AD59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Z60" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AD60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Z61" t="s">
         <v>163</v>
       </c>
-      <c r="AA61" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AC61" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -1780,8 +1821,11 @@
       <c r="Z62" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AD62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -1791,112 +1835,154 @@
       <c r="Z63" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AD63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Z64" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="AD64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="Z65" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="66" spans="1:26">
+      <c r="AD65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Z66" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="AD66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Z67" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="AD67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Z68" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="69" spans="1:26">
+      <c r="AD68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
       <c r="Z69" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="70" spans="1:26">
+      <c r="AD69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="Z70" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="71" spans="1:26">
+      <c r="AD70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="Z71" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="72" spans="1:26">
+      <c r="AD71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Z72" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="73" spans="1:26">
+      <c r="AD72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="Z73" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="74" spans="1:26">
+      <c r="AD73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="Z74" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="75" spans="1:26">
+      <c r="AD74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="Z75" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="76" spans="1:26">
+      <c r="AD75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="Z76" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="77" spans="1:26">
+      <c r="AD76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -1904,7 +1990,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:30">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -1915,7 +2001,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:30">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -1926,7 +2012,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:30">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -1937,7 +2023,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:32">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -1948,7 +2034,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:30">
+    <row r="82" spans="1:32">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -1959,7 +2045,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:30">
+    <row r="83" spans="1:32">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -1970,7 +2056,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:30">
+    <row r="84" spans="1:32">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -1981,7 +2067,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:30">
+    <row r="85" spans="1:32">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -1992,7 +2078,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:32">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -2003,7 +2089,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:30">
+    <row r="87" spans="1:32">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -2014,7 +2100,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:32">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -2028,7 +2114,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:30">
+    <row r="89" spans="1:32">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -2041,14 +2127,14 @@
       <c r="Y89" t="s">
         <v>169</v>
       </c>
-      <c r="AA89" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD89" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30">
+      <c r="AC89" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -2061,14 +2147,14 @@
       <c r="Z90" t="s">
         <v>150</v>
       </c>
-      <c r="AA90" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD90" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30">
+      <c r="AC90" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -2087,14 +2173,14 @@
       <c r="Z91" t="s">
         <v>150</v>
       </c>
-      <c r="AA91" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD91" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30">
+      <c r="AC91" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -2110,14 +2196,14 @@
       <c r="Z92" t="s">
         <v>150</v>
       </c>
-      <c r="AA92" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD92" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30">
+      <c r="AC92" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -2128,7 +2214,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:30">
+    <row r="94" spans="1:32">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -2139,7 +2225,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:30">
+    <row r="95" spans="1:32">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -2150,7 +2236,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:30">
+    <row r="96" spans="1:32">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -2161,7 +2247,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:31">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -2172,7 +2258,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:31">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -2183,7 +2269,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:31">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -2194,7 +2280,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:31">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -2205,7 +2291,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:31">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -2216,7 +2302,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:31">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -2227,7 +2313,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:31">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -2238,7 +2324,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:31">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -2249,7 +2335,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:31">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -2260,7 +2346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:31">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -2271,7 +2357,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:31">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
@@ -2282,7 +2368,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:31">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -2296,7 +2382,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:31">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -2307,7 +2393,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:31">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -2318,7 +2404,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:31">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -2329,7 +2415,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:31">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -2342,11 +2428,11 @@
       <c r="Z112" t="s">
         <v>151</v>
       </c>
-      <c r="AC112" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:29">
+      <c r="AE112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -2357,7 +2443,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:31">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -2368,7 +2454,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:31">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -2382,7 +2468,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:31">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -2392,11 +2478,11 @@
       <c r="Z116" t="s">
         <v>168</v>
       </c>
-      <c r="AC116" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29">
+      <c r="AE116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -2407,7 +2493,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:31">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -2418,7 +2504,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="119" spans="1:29">
+    <row r="119" spans="1:31">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -2429,7 +2515,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:31">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -2443,7 +2529,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:29">
+    <row r="121" spans="1:31">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -2454,7 +2540,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="1:29">
+    <row r="122" spans="1:31">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -2468,7 +2554,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:31">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -2482,7 +2568,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:31">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -2493,7 +2579,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="1:29">
+    <row r="125" spans="1:31">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -2504,7 +2590,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:31">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -2515,7 +2601,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:29">
+    <row r="127" spans="1:31">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -2529,7 +2615,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:31">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -2540,7 +2626,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:30">
+    <row r="129" spans="1:32">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -2551,7 +2637,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="130" spans="1:30">
+    <row r="130" spans="1:32">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -2562,7 +2648,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="131" spans="1:30">
+    <row r="131" spans="1:32">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -2573,7 +2659,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="1:30">
+    <row r="132" spans="1:32">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -2581,7 +2667,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="1:30">
+    <row r="133" spans="1:32">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -2592,7 +2678,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="1:30">
+    <row r="134" spans="1:32">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -2603,7 +2689,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="135" spans="1:30">
+    <row r="135" spans="1:32">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -2614,7 +2700,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="136" spans="1:30">
+    <row r="136" spans="1:32">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
@@ -2625,7 +2711,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="1:30">
+    <row r="137" spans="1:32">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -2635,10 +2721,17 @@
       <c r="Y137" t="s">
         <v>175</v>
       </c>
-      <c r="AA137" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD137" t="s">
+      <c r="Z137" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA137" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB137" s="1"/>
+      <c r="AC137" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF137" t="s">
         <v>142</v>
       </c>
     </row>

--- a/trunk/file_list.xlsx
+++ b/trunk/file_list.xlsx
@@ -468,18 +468,12 @@
     <t>needs_wk</t>
   </si>
   <si>
-    <t>SJH</t>
-  </si>
-  <si>
     <t>SimonH</t>
   </si>
   <si>
     <t>rep</t>
   </si>
   <si>
-    <t>ADL</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -507,9 +501,6 @@
     <t>f.rep</t>
   </si>
   <si>
-    <t>PK</t>
-  </si>
-  <si>
     <t>f.labels</t>
   </si>
   <si>
@@ -522,9 +513,6 @@
     <t>var</t>
   </si>
   <si>
-    <t>NMD</t>
-  </si>
-  <si>
     <t>a temp working file</t>
   </si>
   <si>
@@ -553,6 +541,18 @@
   </si>
   <si>
     <t>Equivalent</t>
+  </si>
+  <si>
+    <t>Shelton</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Pierre</t>
   </si>
 </sst>
 </file>
@@ -892,9 +892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -956,43 +956,43 @@
         <v>148</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>143</v>
@@ -1010,25 +1010,25 @@
         <v>145</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -1039,7 +1039,7 @@
         <v>142</v>
       </c>
       <c r="Z2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -1050,7 +1050,7 @@
         <v>142</v>
       </c>
       <c r="Z3" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -1061,7 +1061,7 @@
         <v>142</v>
       </c>
       <c r="Z4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -1072,7 +1072,7 @@
         <v>142</v>
       </c>
       <c r="Z5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1089,7 +1089,7 @@
         <v>142</v>
       </c>
       <c r="Z6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1106,7 +1106,7 @@
         <v>142</v>
       </c>
       <c r="Z7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1123,7 +1123,7 @@
         <v>142</v>
       </c>
       <c r="Z8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1140,7 +1140,7 @@
         <v>142</v>
       </c>
       <c r="Z9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1157,7 +1157,7 @@
         <v>142</v>
       </c>
       <c r="Z10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1171,7 +1171,7 @@
         <v>146</v>
       </c>
       <c r="Z11" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1182,7 +1182,7 @@
         <v>142</v>
       </c>
       <c r="Z12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1193,7 +1193,7 @@
         <v>142</v>
       </c>
       <c r="Z13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -1204,7 +1204,7 @@
         <v>142</v>
       </c>
       <c r="Z14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -1221,7 +1221,7 @@
         <v>142</v>
       </c>
       <c r="Z15" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -1229,7 +1229,7 @@
         <v>14</v>
       </c>
       <c r="Z16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -1246,7 +1246,7 @@
         <v>142</v>
       </c>
       <c r="Z17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -1257,7 +1257,7 @@
         <v>142</v>
       </c>
       <c r="Z18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -1268,7 +1268,7 @@
         <v>142</v>
       </c>
       <c r="Z19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -1279,7 +1279,7 @@
         <v>142</v>
       </c>
       <c r="Z20" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="AD20" t="s">
         <v>142</v>
@@ -1293,7 +1293,7 @@
         <v>142</v>
       </c>
       <c r="Z21" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="AD21" t="s">
         <v>142</v>
@@ -1307,7 +1307,7 @@
         <v>142</v>
       </c>
       <c r="Z22" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -1318,7 +1318,7 @@
         <v>142</v>
       </c>
       <c r="Z23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -1347,7 +1347,7 @@
         <v>142</v>
       </c>
       <c r="Z24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -1376,7 +1376,7 @@
         <v>142</v>
       </c>
       <c r="Z25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -1387,7 +1387,7 @@
         <v>142</v>
       </c>
       <c r="Z26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>27</v>
@@ -1401,7 +1401,7 @@
         <v>142</v>
       </c>
       <c r="Z27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -1412,7 +1412,7 @@
         <v>142</v>
       </c>
       <c r="Z28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -1423,7 +1423,7 @@
         <v>142</v>
       </c>
       <c r="Z29" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AB29" s="1" t="s">
         <v>24</v>
@@ -1434,7 +1434,7 @@
         <v>28</v>
       </c>
       <c r="Z30" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -1442,7 +1442,7 @@
         <v>29</v>
       </c>
       <c r="Z31" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="Z32" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -1461,7 +1461,7 @@
         <v>142</v>
       </c>
       <c r="Z33" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -1472,7 +1472,7 @@
         <v>142</v>
       </c>
       <c r="Z34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -1486,7 +1486,7 @@
         <v>142</v>
       </c>
       <c r="Z35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -1497,7 +1497,7 @@
         <v>142</v>
       </c>
       <c r="Z36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -1508,7 +1508,7 @@
         <v>142</v>
       </c>
       <c r="Z37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -1522,7 +1522,7 @@
         <v>142</v>
       </c>
       <c r="Z38" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -1533,7 +1533,7 @@
         <v>142</v>
       </c>
       <c r="Z39" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -1541,7 +1541,7 @@
         <v>38</v>
       </c>
       <c r="Z40" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="AC40" t="s">
         <v>142</v>
@@ -1561,7 +1561,7 @@
         <v>142</v>
       </c>
       <c r="Z41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -1575,7 +1575,7 @@
         <v>142</v>
       </c>
       <c r="Z42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>41</v>
       </c>
       <c r="Z43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC43" t="s">
         <v>142</v>
@@ -1594,7 +1594,7 @@
         <v>42</v>
       </c>
       <c r="Z44" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -1602,7 +1602,7 @@
         <v>43</v>
       </c>
       <c r="Z45" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="AC45" t="s">
         <v>142</v>
@@ -1622,7 +1622,7 @@
         <v>142</v>
       </c>
       <c r="Z46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -1633,7 +1633,7 @@
         <v>142</v>
       </c>
       <c r="Z47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -1641,7 +1641,7 @@
         <v>46</v>
       </c>
       <c r="Z48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -1652,7 +1652,7 @@
         <v>142</v>
       </c>
       <c r="Z49" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -1660,7 +1660,7 @@
         <v>48</v>
       </c>
       <c r="Z50" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="AD50" t="s">
         <v>142</v>
@@ -1674,7 +1674,7 @@
         <v>142</v>
       </c>
       <c r="Z51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -1685,7 +1685,7 @@
         <v>142</v>
       </c>
       <c r="Z52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -1696,7 +1696,7 @@
         <v>142</v>
       </c>
       <c r="Z53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -1710,7 +1710,7 @@
         <v>142</v>
       </c>
       <c r="Z54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -1727,7 +1727,7 @@
         <v>142</v>
       </c>
       <c r="Z55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC55" s="2" t="s">
         <v>142</v>
@@ -1741,7 +1741,7 @@
         <v>142</v>
       </c>
       <c r="Z56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -1755,7 +1755,7 @@
         <v>142</v>
       </c>
       <c r="Z57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC57" s="2" t="s">
         <v>142</v>
@@ -1769,7 +1769,7 @@
         <v>142</v>
       </c>
       <c r="Z58" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="AD58" t="s">
         <v>142</v>
@@ -1780,7 +1780,7 @@
         <v>57</v>
       </c>
       <c r="Z59" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="AD59" t="s">
         <v>142</v>
@@ -1791,7 +1791,7 @@
         <v>58</v>
       </c>
       <c r="Z60" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="AD60" t="s">
         <v>142</v>
@@ -1802,7 +1802,7 @@
         <v>59</v>
       </c>
       <c r="Z61" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="AC61" t="s">
         <v>142</v>
@@ -1819,7 +1819,7 @@
         <v>142</v>
       </c>
       <c r="Z62" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD62" t="s">
         <v>142</v>
@@ -1833,7 +1833,7 @@
         <v>142</v>
       </c>
       <c r="Z63" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD63" t="s">
         <v>142</v>
@@ -1844,7 +1844,7 @@
         <v>62</v>
       </c>
       <c r="Z64" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD64" t="s">
         <v>142</v>
@@ -1855,7 +1855,7 @@
         <v>63</v>
       </c>
       <c r="Z65" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD65" t="s">
         <v>142</v>
@@ -1866,7 +1866,7 @@
         <v>64</v>
       </c>
       <c r="Z66" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="AD66" t="s">
         <v>142</v>
@@ -1877,7 +1877,7 @@
         <v>65</v>
       </c>
       <c r="Z67" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD67" t="s">
         <v>142</v>
@@ -1888,7 +1888,7 @@
         <v>66</v>
       </c>
       <c r="Z68" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD68" t="s">
         <v>142</v>
@@ -1899,7 +1899,7 @@
         <v>67</v>
       </c>
       <c r="Z69" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="AD69" t="s">
         <v>142</v>
@@ -1910,7 +1910,7 @@
         <v>68</v>
       </c>
       <c r="Z70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD70" t="s">
         <v>142</v>
@@ -1921,7 +1921,7 @@
         <v>69</v>
       </c>
       <c r="Z71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD71" t="s">
         <v>142</v>
@@ -1932,7 +1932,7 @@
         <v>70</v>
       </c>
       <c r="Z72" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="AD72" t="s">
         <v>142</v>
@@ -1943,7 +1943,7 @@
         <v>71</v>
       </c>
       <c r="Z73" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="AD73" t="s">
         <v>142</v>
@@ -1954,7 +1954,7 @@
         <v>72</v>
       </c>
       <c r="Z74" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="AD74" t="s">
         <v>142</v>
@@ -1965,7 +1965,7 @@
         <v>73</v>
       </c>
       <c r="Z75" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="AD75" t="s">
         <v>142</v>
@@ -1976,7 +1976,7 @@
         <v>74</v>
       </c>
       <c r="Z76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD76" t="s">
         <v>142</v>
@@ -1987,7 +1987,7 @@
         <v>75</v>
       </c>
       <c r="Z77" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -1998,7 +1998,7 @@
         <v>142</v>
       </c>
       <c r="Z78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -2009,7 +2009,7 @@
         <v>142</v>
       </c>
       <c r="Z79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:30">
@@ -2020,7 +2020,7 @@
         <v>142</v>
       </c>
       <c r="Z80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:32">
@@ -2031,7 +2031,7 @@
         <v>142</v>
       </c>
       <c r="Z81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:32">
@@ -2042,7 +2042,7 @@
         <v>142</v>
       </c>
       <c r="Z82" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:32">
@@ -2053,7 +2053,7 @@
         <v>142</v>
       </c>
       <c r="Z83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:32">
@@ -2064,7 +2064,7 @@
         <v>142</v>
       </c>
       <c r="Z84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:32">
@@ -2075,7 +2075,7 @@
         <v>142</v>
       </c>
       <c r="Z85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:32">
@@ -2086,7 +2086,7 @@
         <v>142</v>
       </c>
       <c r="Z86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:32">
@@ -2097,7 +2097,7 @@
         <v>142</v>
       </c>
       <c r="Z87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:32">
@@ -2111,7 +2111,7 @@
         <v>142</v>
       </c>
       <c r="Z88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:32">
@@ -2125,7 +2125,7 @@
         <v>142</v>
       </c>
       <c r="Y89" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AC89" t="s">
         <v>142</v>
@@ -2142,10 +2142,10 @@
         <v>142</v>
       </c>
       <c r="Y90" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Z90" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AC90" t="s">
         <v>142</v>
@@ -2168,10 +2168,10 @@
         <v>142</v>
       </c>
       <c r="Y91" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Z91" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AC91" t="s">
         <v>142</v>
@@ -2191,10 +2191,10 @@
         <v>142</v>
       </c>
       <c r="Y92" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Z92" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AC92" t="s">
         <v>142</v>
@@ -2211,7 +2211,7 @@
         <v>142</v>
       </c>
       <c r="Z93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:32">
@@ -2222,7 +2222,7 @@
         <v>142</v>
       </c>
       <c r="Z94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:32">
@@ -2233,7 +2233,7 @@
         <v>142</v>
       </c>
       <c r="Z95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:32">
@@ -2244,7 +2244,7 @@
         <v>142</v>
       </c>
       <c r="Z96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:31">
@@ -2255,7 +2255,7 @@
         <v>142</v>
       </c>
       <c r="Z97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:31">
@@ -2266,7 +2266,7 @@
         <v>142</v>
       </c>
       <c r="Z98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:31">
@@ -2277,7 +2277,7 @@
         <v>142</v>
       </c>
       <c r="Z99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:31">
@@ -2288,7 +2288,7 @@
         <v>142</v>
       </c>
       <c r="Z100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:31">
@@ -2299,7 +2299,7 @@
         <v>142</v>
       </c>
       <c r="Z101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:31">
@@ -2310,7 +2310,7 @@
         <v>142</v>
       </c>
       <c r="Z102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:31">
@@ -2321,7 +2321,7 @@
         <v>142</v>
       </c>
       <c r="Z103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:31">
@@ -2332,7 +2332,7 @@
         <v>142</v>
       </c>
       <c r="Z104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:31">
@@ -2343,7 +2343,7 @@
         <v>142</v>
       </c>
       <c r="Z105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:31">
@@ -2354,7 +2354,7 @@
         <v>142</v>
       </c>
       <c r="Z106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:31">
@@ -2365,7 +2365,7 @@
         <v>142</v>
       </c>
       <c r="Z107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:31">
@@ -2379,7 +2379,7 @@
         <v>142</v>
       </c>
       <c r="Z108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:31">
@@ -2390,7 +2390,7 @@
         <v>142</v>
       </c>
       <c r="Z109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:31">
@@ -2401,7 +2401,7 @@
         <v>142</v>
       </c>
       <c r="Z110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:31">
@@ -2412,7 +2412,7 @@
         <v>142</v>
       </c>
       <c r="Z111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:31">
@@ -2426,7 +2426,7 @@
         <v>142</v>
       </c>
       <c r="Z112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AE112" t="s">
         <v>142</v>
@@ -2440,7 +2440,7 @@
         <v>142</v>
       </c>
       <c r="Z113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:31">
@@ -2451,7 +2451,7 @@
         <v>142</v>
       </c>
       <c r="Z114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:31">
@@ -2465,7 +2465,7 @@
         <v>142</v>
       </c>
       <c r="Z115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:31">
@@ -2476,7 +2476,7 @@
         <v>142</v>
       </c>
       <c r="Z116" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AE116" t="s">
         <v>142</v>
@@ -2490,7 +2490,7 @@
         <v>142</v>
       </c>
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:31">
@@ -2501,7 +2501,7 @@
         <v>142</v>
       </c>
       <c r="Z118" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:31">
@@ -2512,7 +2512,7 @@
         <v>142</v>
       </c>
       <c r="Z119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:31">
@@ -2526,7 +2526,7 @@
         <v>142</v>
       </c>
       <c r="Z120" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:31">
@@ -2537,7 +2537,7 @@
         <v>142</v>
       </c>
       <c r="Z121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:31">
@@ -2551,7 +2551,7 @@
         <v>142</v>
       </c>
       <c r="Z122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:31">
@@ -2565,7 +2565,7 @@
         <v>142</v>
       </c>
       <c r="Z123" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" spans="1:31">
@@ -2576,7 +2576,7 @@
         <v>142</v>
       </c>
       <c r="Z124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:31">
@@ -2587,7 +2587,7 @@
         <v>142</v>
       </c>
       <c r="Z125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:31">
@@ -2598,7 +2598,7 @@
         <v>142</v>
       </c>
       <c r="Z126" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:31">
@@ -2612,7 +2612,7 @@
         <v>142</v>
       </c>
       <c r="Z127" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:31">
@@ -2623,7 +2623,7 @@
         <v>142</v>
       </c>
       <c r="Z128" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:32">
@@ -2634,7 +2634,7 @@
         <v>142</v>
       </c>
       <c r="Z129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:32">
@@ -2645,7 +2645,7 @@
         <v>142</v>
       </c>
       <c r="Z130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:32">
@@ -2656,7 +2656,7 @@
         <v>142</v>
       </c>
       <c r="Z131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:32">
@@ -2664,7 +2664,7 @@
         <v>130</v>
       </c>
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:32">
@@ -2675,7 +2675,7 @@
         <v>142</v>
       </c>
       <c r="Z133" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:32">
@@ -2686,7 +2686,7 @@
         <v>142</v>
       </c>
       <c r="Z134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:32">
@@ -2697,7 +2697,7 @@
         <v>142</v>
       </c>
       <c r="Z135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:32">
@@ -2708,7 +2708,7 @@
         <v>142</v>
       </c>
       <c r="Z136" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:32">
@@ -2719,10 +2719,10 @@
         <v>142</v>
       </c>
       <c r="Y137" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Z137" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AA137" s="1" t="s">
         <v>131</v>

--- a/trunk/file_list.xlsx
+++ b/trunk/file_list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="22860" windowHeight="10170"/>
@@ -893,8 +893,8 @@
   <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V24" sqref="V24"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
